--- a/pred_ohlcv/54_21/2020-01-25 SOC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 SOC ohlcv.xlsx
@@ -860,7 +860,7 @@
         <v>-1455196.956691147</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-1455196.956691147</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-1171610.213291147</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-1171610.213291147</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-1279308.685491147</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-1380138.482791146</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-1357538.934991146</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-1358720.312491146</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-1487494.348291147</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-1970500.109457673</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-1896373.604657673</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-1877177.934857673</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-1877177.934857673</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-1942239.470657673</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-1778436.967757673</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-1778436.967757673</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-1979260.996557673</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-1871334.156857673</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-1871637.492257673</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-1871637.492257673</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-1893381.722257673</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-1864233.211357673</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-1836871.475757673</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-1851729.166057673</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-1840802.323357673</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-1782663.410657673</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-1782663.410657673</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-1938208.348757673</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-1860184.989157673</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-1860184.989157673</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-1941011.871357673</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-1793240.603957673</v>
       </c>
       <c r="H204">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-25 SOC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 SOC ohlcv.xlsx
@@ -860,7 +860,7 @@
         <v>-1455196.956691147</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-1455196.956691147</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-1183255.636591146</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-1183305.636591146</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-1171610.213291147</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-1171610.213291147</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-1279308.685491147</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-1380138.482791146</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-1487494.348291147</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-1970500.109457673</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-1896373.604657673</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-1877177.934857673</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-1877177.934857673</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-1942239.470657673</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-1778436.967757673</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-1778436.967757673</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-1979260.996557673</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-1847435.440357673</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-1847435.440357673</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-1847435.440357673</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-1847435.440357673</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-1874155.722057673</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-1871334.156857673</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-1871637.492257673</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-1871637.492257673</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-1893381.722257673</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-1864233.211357673</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-1836871.475757673</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-1851729.166057673</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-1840802.323357673</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-1782663.410657673</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-1782663.410657673</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-1938208.348757673</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-1860184.989157673</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-1860184.989157673</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-1941011.871357673</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-1793240.603957673</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
